--- a/ResEditor/Design/Stage/G_Boss.xlsx
+++ b/ResEditor/Design/Stage/G_Boss.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,26 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>碰撞区域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用歌声使人迷惑程度的能力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,10 +107,6 @@
   </si>
   <si>
     <t>别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>box</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -150,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,6 +137,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -184,15 +178,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -522,20 +528,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M1048576"/>
+      <selection activeCell="G1" sqref="G1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="4" width="22.1640625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -543,7 +548,7 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -554,11 +559,8 @@
       <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -566,7 +568,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -577,17 +579,8 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -606,27 +599,18 @@
       <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" hidden="1"/>
-    <row r="5" spans="1:9" hidden="1"/>
-    <row r="6" spans="1:9">
+    <row r="4" spans="1:6" hidden="1"/>
+    <row r="5" spans="1:6" hidden="1"/>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>10300001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -637,42 +621,31 @@
       <c r="F6">
         <v>10000</v>
       </c>
-      <c r="H6">
-        <v>32</v>
-      </c>
-      <c r="I6">
-        <v>48</v>
-      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>10300002</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
         <v>11000</v>
-      </c>
-      <c r="H7">
-        <v>32</v>
-      </c>
-      <c r="I7">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
